--- a/server/resource/excel/BrokerPositionDaily.xlsx
+++ b/server/resource/excel/BrokerPositionDaily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8880" windowWidth="16044"/>
+    <workbookView windowHeight="9420" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+  <si>
+    <t>鲁证持仓数据</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
@@ -40,6 +43,15 @@
     <t>最新持仓</t>
   </si>
   <si>
+    <t>本次周期</t>
+  </si>
+  <si>
+    <t>剩余天数</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
     <t>鲁证</t>
   </si>
   <si>
@@ -47,26 +59,85 @@
   </si>
   <si>
     <t>hc</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>zn</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>au</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b>false</b>
@@ -77,57 +148,88 @@
     <font>
       <b>false</b>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <b>false</b>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <b>false</b>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i>false</i>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -135,97 +237,73 @@
       <b>false</b>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i>false</i>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b>false</b>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b>false</b>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b>false</b>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b>false</b>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -240,37 +318,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,133 +462,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,15 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,92 +622,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -632,78 +716,86 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -753,6 +845,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -764,7 +857,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -780,7 +873,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -792,7 +885,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -809,9 +902,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -844,9 +937,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1021,102 +1114,571 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="15.6296296296296"/>
-    <col customWidth="true" max="4" min="4" width="15.75"/>
-    <col customWidth="true" max="5" min="5" width="16.3796296296296"/>
-    <col customWidth="true" max="6" min="6" width="21.75"/>
-    <col customWidth="true" max="7" min="7" width="18.5"/>
-    <col customWidth="true" max="8" min="8" width="16.5"/>
+    <col customWidth="true" max="1" min="1" width="11.6296296296296"/>
+    <col max="2" min="2" style="1" width="9"/>
+    <col max="5" min="4" width="14.8796296296296"/>
+    <col max="6" min="6" width="11.5"/>
+    <col customWidth="true" max="7" min="7" width="13"/>
+    <col max="8" min="8" width="11.5"/>
+    <col customWidth="true" max="9" min="9" width="12.6296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="16.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4746716.842</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2744258.174</v>
+      </c>
+      <c r="F2" s="8">
+        <v>155867.095</v>
+      </c>
+      <c r="G2" s="8">
+        <v>24982.72</v>
+      </c>
+      <c r="H2" s="8">
+        <v>123861.569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1741153.39</v>
+      </c>
+      <c r="E3" s="8">
+        <v>889849.15</v>
+      </c>
+      <c r="F3" s="8">
+        <v>53046.07</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8705.77</v>
+      </c>
+      <c r="H3" s="8">
+        <v>57054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2416952.09</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1231021.79</v>
+      </c>
+      <c r="F4" s="8">
+        <v>58680.67</v>
+      </c>
+      <c r="G4" s="8">
+        <v>21972.29</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1125243</v>
+      </c>
+      <c r="E5" s="8">
+        <v>932298</v>
+      </c>
+      <c r="F5" s="8">
+        <v>22869.93</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3750.81</v>
+      </c>
+      <c r="H5" s="8">
+        <v>19038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8">
+        <v>851524.26</v>
+      </c>
+      <c r="E6" s="8">
+        <v>36729.9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>36628.2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10644.05</v>
+      </c>
+      <c r="H6" s="8">
+        <v>30998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8">
+        <v>295719</v>
+      </c>
+      <c r="E7" s="8">
+        <v>238101</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7998.53</v>
+      </c>
+      <c r="G7" s="8">
+        <v>938.79</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8">
+        <v>469976.99</v>
+      </c>
+      <c r="E8" s="8">
+        <v>233391.35</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8919.13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2764.57</v>
+      </c>
+      <c r="H8" s="8">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>329955</v>
+      </c>
+      <c r="E9" s="8">
+        <v>218700</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8823.4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>868.3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3504860</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2989980</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5895</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2696.05</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>207788</v>
+      </c>
+      <c r="E11" s="8">
+        <v>12322</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4272.27</v>
+      </c>
+      <c r="G11" s="8">
+        <v>903.43</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1522507.13</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1150469.58</v>
+      </c>
+      <c r="F12" s="8">
+        <v>6001.47</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1443.13</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8">
+        <v>996884.03</v>
+      </c>
+      <c r="E13" s="8">
+        <v>614860.33</v>
+      </c>
+      <c r="F13" s="8">
+        <v>19267.8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3692.16</v>
+      </c>
+      <c r="H13" s="8">
+        <v>18531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8">
+        <v>137936.03</v>
+      </c>
+      <c r="E14" s="8">
+        <v>84997.28</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4312.13</v>
+      </c>
+      <c r="G14" s="8">
+        <v>626.98</v>
+      </c>
+      <c r="H14" s="8">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8">
+        <v>87984.71</v>
+      </c>
+      <c r="E15" s="8">
+        <v>65988.71</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1557.87</v>
+      </c>
+      <c r="G15" s="8">
+        <v>298.25</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8">
+        <v>58901.97</v>
+      </c>
+      <c r="E16" s="8">
+        <v>21846.73</v>
+      </c>
+      <c r="F16" s="8">
+        <v>299.73</v>
+      </c>
+      <c r="G16" s="8">
+        <v>72.27</v>
+      </c>
+      <c r="H16" s="8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10.23</v>
+      </c>
+      <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F17" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
-        <v>44527</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5">
-        <v>21250005.48</v>
-      </c>
-      <c r="E2" s="5">
-        <v>12409946.15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>245913.67</v>
-      </c>
-      <c r="G2" s="5">
-        <v>111842.13</v>
-      </c>
-      <c r="H2" s="5">
-        <v>295316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>44527</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>5641383.83</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3143606.39</v>
-      </c>
-      <c r="F3" s="5">
-        <v>60115.78</v>
-      </c>
-      <c r="G3" s="5">
-        <v>28206.92</v>
-      </c>
-      <c r="H3" s="5">
-        <v>70915</v>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8">
+        <v>89550.13</v>
+      </c>
+      <c r="E18" s="8">
+        <v>82564.97</v>
+      </c>
+      <c r="F18" s="8">
+        <v>522.73</v>
+      </c>
+      <c r="G18" s="8">
+        <v>995</v>
+      </c>
+      <c r="H18" s="8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8">
+        <v>536709</v>
+      </c>
+      <c r="E19" s="8">
+        <v>267852</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3000.87</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1325.21</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1384068</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1001409</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1012.13</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2129.34</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8">
+        <v>374098</v>
+      </c>
+      <c r="E21" s="8">
+        <v>293224</v>
+      </c>
+      <c r="F21" s="8">
+        <v>911.33</v>
+      </c>
+      <c r="G21" s="8">
+        <v>435</v>
+      </c>
+      <c r="H21" s="8">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
